--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3228843.897556322</v>
+        <v>3226345.646235112</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673417</v>
       </c>
     </row>
     <row r="9">
@@ -1373,19 +1373,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152317</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>126.1834840891869</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,22 +1607,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444486</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>120.8005049610255</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,16 +1771,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
         <v>49.37728379124555</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1844,22 +1844,22 @@
         <v>288.3310575773446</v>
       </c>
       <c r="C17" t="n">
-        <v>270.8701076848716</v>
+        <v>270.8701076848715</v>
       </c>
       <c r="D17" t="n">
-        <v>260.280257534547</v>
+        <v>260.2802575345469</v>
       </c>
       <c r="E17" t="n">
         <v>287.5275859861258</v>
       </c>
       <c r="F17" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555754</v>
       </c>
       <c r="G17" t="n">
-        <v>270.5718355797511</v>
+        <v>270.5718355797512</v>
       </c>
       <c r="H17" t="n">
-        <v>200.2049803011845</v>
+        <v>200.2049803011844</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.7849777020399</v>
+        <v>14.78497770203981</v>
       </c>
       <c r="T17" t="n">
-        <v>109.5151860534842</v>
+        <v>109.5151860534841</v>
       </c>
       <c r="U17" t="n">
-        <v>156.592387872766</v>
+        <v>156.5923878727659</v>
       </c>
       <c r="V17" t="n">
         <v>233.3494743839989</v>
@@ -1907,7 +1907,7 @@
         <v>254.838184631277</v>
       </c>
       <c r="X17" t="n">
-        <v>275.3283165923331</v>
+        <v>275.328316592333</v>
       </c>
       <c r="Y17" t="n">
         <v>291.8351545699176</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.42919609580134</v>
+        <v>85.42919609580126</v>
       </c>
       <c r="C19" t="n">
-        <v>72.84403701249188</v>
+        <v>72.8440370124918</v>
       </c>
       <c r="D19" t="n">
-        <v>54.2126889320764</v>
+        <v>54.21268893207632</v>
       </c>
       <c r="E19" t="n">
-        <v>52.03117856043322</v>
+        <v>52.03117856043313</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679529</v>
+        <v>51.01826393679521</v>
       </c>
       <c r="G19" t="n">
-        <v>71.62302417289227</v>
+        <v>71.62302417289219</v>
       </c>
       <c r="H19" t="n">
-        <v>50.35223082818483</v>
+        <v>50.35223082818474</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949636323702158</v>
+        <v>1.949636323702073</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36624124530593</v>
+        <v>95.36624124530587</v>
       </c>
       <c r="T19" t="n">
         <v>125.1461651900332</v>
       </c>
       <c r="U19" t="n">
-        <v>191.8090541194769</v>
+        <v>191.8090541194768</v>
       </c>
       <c r="V19" t="n">
         <v>157.734859237692</v>
@@ -2065,7 +2065,7 @@
         <v>192.120214250455</v>
       </c>
       <c r="X19" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029011</v>
       </c>
       <c r="Y19" t="n">
         <v>124.1818692659588</v>
@@ -2081,22 +2081,22 @@
         <v>288.3310575773446</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8701076848716</v>
+        <v>270.8701076848715</v>
       </c>
       <c r="D20" t="n">
-        <v>260.280257534547</v>
+        <v>260.2802575345469</v>
       </c>
       <c r="E20" t="n">
         <v>287.5275859861258</v>
       </c>
       <c r="F20" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555754</v>
       </c>
       <c r="G20" t="n">
-        <v>316.5189415673175</v>
+        <v>316.5189415673174</v>
       </c>
       <c r="H20" t="n">
-        <v>169.0428520156582</v>
+        <v>154.2578743136198</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>14.7849777020398</v>
       </c>
       <c r="T20" t="n">
-        <v>109.5151860534842</v>
+        <v>109.5151860534841</v>
       </c>
       <c r="U20" t="n">
-        <v>156.592387872766</v>
+        <v>156.5923878727659</v>
       </c>
       <c r="V20" t="n">
         <v>233.3494743839989</v>
@@ -2144,7 +2144,7 @@
         <v>254.838184631277</v>
       </c>
       <c r="X20" t="n">
-        <v>275.3283165923331</v>
+        <v>275.328316592333</v>
       </c>
       <c r="Y20" t="n">
         <v>291.8351545699176</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.42919609580134</v>
+        <v>85.42919609580126</v>
       </c>
       <c r="C22" t="n">
-        <v>72.84403701249188</v>
+        <v>72.8440370124918</v>
       </c>
       <c r="D22" t="n">
-        <v>54.2126889320764</v>
+        <v>54.21268893207632</v>
       </c>
       <c r="E22" t="n">
-        <v>52.03117856043322</v>
+        <v>52.03117856043313</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679529</v>
+        <v>51.01826393679521</v>
       </c>
       <c r="G22" t="n">
-        <v>71.62302417289227</v>
+        <v>71.62302417289219</v>
       </c>
       <c r="H22" t="n">
-        <v>50.35223082818483</v>
+        <v>50.35223082818474</v>
       </c>
       <c r="I22" t="n">
-        <v>1.949636323702158</v>
+        <v>1.949636323702059</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.36624124530593</v>
+        <v>95.36624124530587</v>
       </c>
       <c r="T22" t="n">
         <v>125.1461651900332</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8090541194769</v>
+        <v>191.8090541194768</v>
       </c>
       <c r="V22" t="n">
         <v>157.734859237692</v>
@@ -2302,7 +2302,7 @@
         <v>192.120214250455</v>
       </c>
       <c r="X22" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029011</v>
       </c>
       <c r="Y22" t="n">
         <v>124.1818692659588</v>
@@ -2318,22 +2318,22 @@
         <v>288.3310575773446</v>
       </c>
       <c r="C23" t="n">
-        <v>270.8701076848716</v>
+        <v>270.8701076848715</v>
       </c>
       <c r="D23" t="n">
-        <v>260.280257534547</v>
+        <v>260.2802575345469</v>
       </c>
       <c r="E23" t="n">
         <v>287.5275859861258</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555754</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5189415673175</v>
+        <v>316.5189415673174</v>
       </c>
       <c r="H23" t="n">
-        <v>200.2049803011845</v>
+        <v>154.2578743136204</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.7849777020399</v>
+        <v>14.78497770203982</v>
       </c>
       <c r="T23" t="n">
-        <v>109.5151860534842</v>
+        <v>109.5151860534841</v>
       </c>
       <c r="U23" t="n">
         <v>156.592387872766</v>
       </c>
       <c r="V23" t="n">
-        <v>187.4023683964321</v>
+        <v>233.3494743839989</v>
       </c>
       <c r="W23" t="n">
         <v>254.838184631277</v>
       </c>
       <c r="X23" t="n">
-        <v>275.3283165923331</v>
+        <v>275.328316592333</v>
       </c>
       <c r="Y23" t="n">
         <v>291.8351545699176</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.42919609580134</v>
+        <v>85.42919609580129</v>
       </c>
       <c r="C25" t="n">
-        <v>72.84403701249188</v>
+        <v>72.84403701249182</v>
       </c>
       <c r="D25" t="n">
-        <v>54.2126889320764</v>
+        <v>54.21268893207635</v>
       </c>
       <c r="E25" t="n">
-        <v>52.03117856043322</v>
+        <v>52.03117856043316</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679529</v>
+        <v>51.01826393679524</v>
       </c>
       <c r="G25" t="n">
-        <v>71.62302417289227</v>
+        <v>71.62302417289222</v>
       </c>
       <c r="H25" t="n">
-        <v>50.35223082818483</v>
+        <v>50.35223082818477</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702158</v>
+        <v>1.949636323702087</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.36624124530593</v>
+        <v>95.36624124530587</v>
       </c>
       <c r="T25" t="n">
         <v>125.1461651900332</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8090541194769</v>
+        <v>191.8090541194768</v>
       </c>
       <c r="V25" t="n">
         <v>157.734859237692</v>
@@ -2539,7 +2539,7 @@
         <v>192.120214250455</v>
       </c>
       <c r="X25" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029011</v>
       </c>
       <c r="Y25" t="n">
         <v>124.1818692659588</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3061941959372</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>317.8452443034642</v>
+        <v>317.8452443034641</v>
       </c>
       <c r="D26" t="n">
-        <v>307.2553941531396</v>
+        <v>307.2553941531395</v>
       </c>
       <c r="E26" t="n">
-        <v>52.72166544092369</v>
+        <v>334.5027226047183</v>
       </c>
       <c r="F26" t="n">
-        <v>359.4483982741681</v>
+        <v>359.448398274168</v>
       </c>
       <c r="G26" t="n">
-        <v>363.4940781859101</v>
+        <v>363.49407818591</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1801169197771</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>61.76011432063241</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.4903226720767</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>203.5675244913585</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3246110025916</v>
+        <v>280.3246110025915</v>
       </c>
       <c r="W26" t="n">
-        <v>301.8133212498697</v>
+        <v>301.8133212498695</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3034532109257</v>
+        <v>322.3034532109256</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885102</v>
+        <v>217.6975836563629</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>132.4043327143939</v>
       </c>
       <c r="C28" t="n">
-        <v>119.8191736310845</v>
+        <v>119.8191736310844</v>
       </c>
       <c r="D28" t="n">
-        <v>101.187825550669</v>
+        <v>101.1878255506689</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902579</v>
+        <v>99.00631517902573</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538786</v>
+        <v>97.99340055538781</v>
       </c>
       <c r="G28" t="n">
         <v>118.5981607914848</v>
       </c>
       <c r="H28" t="n">
-        <v>97.3273674467774</v>
+        <v>97.32736744677734</v>
       </c>
       <c r="I28" t="n">
-        <v>48.92477294229473</v>
+        <v>48.92477294229467</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.50450520250396</v>
+        <v>41.50450520250391</v>
       </c>
       <c r="S28" t="n">
         <v>142.3413778638985</v>
@@ -2767,7 +2767,7 @@
         <v>172.1213018086258</v>
       </c>
       <c r="U28" t="n">
-        <v>238.7841907380695</v>
+        <v>238.7841907380694</v>
       </c>
       <c r="V28" t="n">
         <v>204.7099958562846</v>
@@ -2776,7 +2776,7 @@
         <v>239.0953508690476</v>
       </c>
       <c r="X28" t="n">
-        <v>178.2820079214938</v>
+        <v>178.2820079214937</v>
       </c>
       <c r="Y28" t="n">
         <v>171.1570058845514</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3061941959372</v>
+        <v>335.3061941959371</v>
       </c>
       <c r="C29" t="n">
-        <v>317.8452443034642</v>
+        <v>317.8452443034641</v>
       </c>
       <c r="D29" t="n">
-        <v>307.2553941531396</v>
+        <v>307.2553941531395</v>
       </c>
       <c r="E29" t="n">
-        <v>334.5027226047184</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>121.2799335387918</v>
+        <v>359.448398274168</v>
       </c>
       <c r="G29" t="n">
-        <v>363.4940781859101</v>
+        <v>241.5778990625448</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>61.76011432063241</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.4903226720767</v>
       </c>
       <c r="U29" t="n">
-        <v>203.5675244913586</v>
+        <v>203.5675244913585</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3246110025916</v>
+        <v>280.3246110025915</v>
       </c>
       <c r="W29" t="n">
-        <v>301.8133212498697</v>
+        <v>301.8133212498695</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3034532109257</v>
+        <v>322.3034532109256</v>
       </c>
       <c r="Y29" t="n">
         <v>338.8102911885102</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.4043327143939</v>
       </c>
       <c r="C31" t="n">
-        <v>119.8191736310845</v>
+        <v>119.8191736310844</v>
       </c>
       <c r="D31" t="n">
-        <v>101.187825550669</v>
+        <v>101.1878255506689</v>
       </c>
       <c r="E31" t="n">
-        <v>99.00631517902583</v>
+        <v>99.00631517902573</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538791</v>
+        <v>97.99340055538781</v>
       </c>
       <c r="G31" t="n">
-        <v>118.5981607914849</v>
+        <v>118.5981607914848</v>
       </c>
       <c r="H31" t="n">
-        <v>97.32736744677744</v>
+        <v>97.32736744677734</v>
       </c>
       <c r="I31" t="n">
-        <v>48.92477294229476</v>
+        <v>48.92477294229467</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250398</v>
+        <v>41.50450520250391</v>
       </c>
       <c r="S31" t="n">
         <v>142.3413778638985</v>
@@ -3004,7 +3004,7 @@
         <v>172.1213018086258</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7841907380695</v>
+        <v>238.7841907380694</v>
       </c>
       <c r="V31" t="n">
         <v>204.7099958562846</v>
@@ -3013,7 +3013,7 @@
         <v>239.0953508690476</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2820079214938</v>
+        <v>178.2820079214937</v>
       </c>
       <c r="Y31" t="n">
         <v>171.1570058845514</v>
@@ -3038,7 +3038,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F32" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G32" t="n">
         <v>313.2370054253485</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T32" t="n">
         <v>106.2332499115152</v>
@@ -3086,13 +3086,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V32" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W32" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X32" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y32" t="n">
         <v>288.5532184279487</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247628</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C34" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G34" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H34" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U34" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V34" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W34" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X34" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y34" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="35">
@@ -3275,10 +3275,10 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253468</v>
       </c>
       <c r="H35" t="n">
         <v>196.9230441592155</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,13 +3323,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3360,7 +3360,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247745</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3512,10 +3512,10 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253473</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592155</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,16 +3560,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383236</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C40" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3743,13 @@
         <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925767</v>
       </c>
       <c r="E41" t="n">
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007026</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,16 +3797,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383236</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441561</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383226</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5621008705228</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010732</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846414</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482621</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092319</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621575</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,7 +4198,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1457.522709123157</v>
+        <v>1627.383644777218</v>
       </c>
       <c r="C11" t="n">
-        <v>1136.009825130819</v>
+        <v>1305.87076078488</v>
       </c>
       <c r="D11" t="n">
-        <v>1136.009825130819</v>
+        <v>995.0546951262027</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806478</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2770.697762901991</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
-        <v>2465.37874057995</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>2139.362615266944</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="Y11" t="n">
-        <v>1796.672916239206</v>
+        <v>1966.533851893267</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,7 +5133,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.41198488674</v>
@@ -5142,28 +5142,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052937</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254601</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611977</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268779</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770408</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.155714499833</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315259</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328083</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5233,7 +5233,7 @@
         <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W13" t="n">
         <v>1247.547945832861</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874601</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1522.736669656749</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C14" t="n">
-        <v>1201.22378566441</v>
+        <v>1022.607520732445</v>
       </c>
       <c r="D14" t="n">
-        <v>890.4077200057329</v>
+        <v>1022.607520732445</v>
       </c>
       <c r="E14" t="n">
-        <v>552.0691003555619</v>
+        <v>684.2689010822742</v>
       </c>
       <c r="F14" t="n">
-        <v>188.5328285140273</v>
+        <v>684.2689010822742</v>
       </c>
       <c r="G14" t="n">
-        <v>188.5328285140273</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.52497783108</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.911723435583</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2530.592701113542</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>2204.576575800535</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>1861.886876772797</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D16" t="n">
         <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1684.621236373654</v>
+        <v>1684.621236373655</v>
       </c>
       <c r="C17" t="n">
-        <v>1411.015066994996</v>
+        <v>1411.015066994997</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.105715949999</v>
+        <v>1148.10571595</v>
       </c>
       <c r="E17" t="n">
-        <v>857.6738109135081</v>
+        <v>857.673810913509</v>
       </c>
       <c r="F17" t="n">
-        <v>542.044253685654</v>
+        <v>542.044253685655</v>
       </c>
       <c r="G17" t="n">
         <v>268.7393692616627</v>
@@ -5516,22 +5516,22 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5543,22 +5543,22 @@
         <v>3310.671500698019</v>
       </c>
       <c r="T17" t="n">
-        <v>3200.050100643994</v>
+        <v>3200.050100643995</v>
       </c>
       <c r="U17" t="n">
         <v>3041.875971479585</v>
       </c>
       <c r="V17" t="n">
-        <v>2806.169431697767</v>
+        <v>2806.169431697768</v>
       </c>
       <c r="W17" t="n">
-        <v>2548.757123989407</v>
+        <v>2548.757123989408</v>
       </c>
       <c r="X17" t="n">
-        <v>2270.64771329008</v>
+        <v>2270.647713290081</v>
       </c>
       <c r="Y17" t="n">
-        <v>1975.864728876022</v>
+        <v>1975.864728876023</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
@@ -5592,10 +5592,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
         <v>765.151745215813</v>
@@ -5616,28 +5616,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.119247509533</v>
+        <v>424.1192475095323</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433795</v>
+        <v>350.539412143379</v>
       </c>
       <c r="D19" t="n">
-        <v>295.7791202927973</v>
+        <v>295.7791202927969</v>
       </c>
       <c r="E19" t="n">
-        <v>243.2223742721577</v>
+        <v>243.2223742721574</v>
       </c>
       <c r="F19" t="n">
-        <v>191.6887743360008</v>
+        <v>191.6887743360006</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3422852724733</v>
+        <v>119.3422852724731</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208459</v>
+        <v>68.48144605208451</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>135.0514132879341</v>
+        <v>129.6354881860049</v>
       </c>
       <c r="K19" t="n">
-        <v>326.8210238008789</v>
+        <v>321.4050986989499</v>
       </c>
       <c r="L19" t="n">
-        <v>575.9896239685107</v>
+        <v>570.5736988665818</v>
       </c>
       <c r="M19" t="n">
-        <v>743.4221052677085</v>
+        <v>738.0061801657796</v>
       </c>
       <c r="N19" t="n">
-        <v>1008.189698542831</v>
+        <v>1002.773773440902</v>
       </c>
       <c r="O19" t="n">
-        <v>1239.566804006295</v>
+        <v>1234.150878904366</v>
       </c>
       <c r="P19" t="n">
-        <v>1431.976563004328</v>
+        <v>1426.560637902399</v>
       </c>
       <c r="Q19" t="n">
-        <v>1538.356086608143</v>
+        <v>1532.940161506215</v>
       </c>
       <c r="R19" t="n">
         <v>1538.356086608143</v>
       </c>
       <c r="S19" t="n">
-        <v>1442.026549996723</v>
+        <v>1442.026549996722</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128002</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815399</v>
       </c>
       <c r="V19" t="n">
-        <v>962.5416221712667</v>
+        <v>962.5416221712658</v>
       </c>
       <c r="W19" t="n">
-        <v>768.4807996960595</v>
+        <v>768.4807996960587</v>
       </c>
       <c r="X19" t="n">
-        <v>635.8475963597957</v>
+        <v>635.8475963597949</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.4113647780192</v>
+        <v>510.4113647780184</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1699.555557284805</v>
+        <v>1684.621236373655</v>
       </c>
       <c r="C20" t="n">
-        <v>1425.949387906147</v>
+        <v>1411.015066994997</v>
       </c>
       <c r="D20" t="n">
-        <v>1163.04003686115</v>
+        <v>1148.10571595</v>
       </c>
       <c r="E20" t="n">
-        <v>872.6081318246593</v>
+        <v>857.6738109135093</v>
       </c>
       <c r="F20" t="n">
-        <v>556.9785745968052</v>
+        <v>542.0442536856553</v>
       </c>
       <c r="G20" t="n">
-        <v>237.2624720035553</v>
+        <v>222.3281510924054</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,19 +5750,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T20" t="n">
-        <v>3214.984421555146</v>
+        <v>3200.050100643995</v>
       </c>
       <c r="U20" t="n">
-        <v>3056.810292390735</v>
+        <v>3041.875971479586</v>
       </c>
       <c r="V20" t="n">
-        <v>2821.103752608918</v>
+        <v>2806.169431697769</v>
       </c>
       <c r="W20" t="n">
-        <v>2563.691444900558</v>
+        <v>2548.757123989408</v>
       </c>
       <c r="X20" t="n">
-        <v>2285.582034201231</v>
+        <v>2270.647713290082</v>
       </c>
       <c r="Y20" t="n">
-        <v>1990.799049787173</v>
+        <v>1975.864728876023</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.119247509533</v>
+        <v>424.1192475095323</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433795</v>
+        <v>350.539412143379</v>
       </c>
       <c r="D22" t="n">
-        <v>295.7791202927973</v>
+        <v>295.7791202927969</v>
       </c>
       <c r="E22" t="n">
-        <v>243.2223742721577</v>
+        <v>243.2223742721574</v>
       </c>
       <c r="F22" t="n">
-        <v>191.6887743360008</v>
+        <v>191.6887743360006</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3422852724733</v>
+        <v>119.3422852724731</v>
       </c>
       <c r="H22" t="n">
-        <v>68.48144605208459</v>
+        <v>68.48144605208449</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7936262148974</v>
+        <v>171.7936262148976</v>
       </c>
       <c r="K22" t="n">
-        <v>363.5632367278423</v>
+        <v>363.5632367278426</v>
       </c>
       <c r="L22" t="n">
-        <v>612.7318368954741</v>
+        <v>612.7318368954745</v>
       </c>
       <c r="M22" t="n">
-        <v>873.6230744399464</v>
+        <v>873.623074439947</v>
       </c>
       <c r="N22" t="n">
-        <v>1101.648454788105</v>
+        <v>1138.390667715069</v>
       </c>
       <c r="O22" t="n">
-        <v>1333.025560251569</v>
+        <v>1327.609635149641</v>
       </c>
       <c r="P22" t="n">
-        <v>1525.435319249603</v>
+        <v>1520.019394147674</v>
       </c>
       <c r="Q22" t="n">
-        <v>1538.356086608143</v>
+        <v>1532.940161506215</v>
       </c>
       <c r="R22" t="n">
         <v>1538.356086608143</v>
       </c>
       <c r="S22" t="n">
-        <v>1442.026549996723</v>
+        <v>1442.026549996722</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128002</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815399</v>
       </c>
       <c r="V22" t="n">
-        <v>962.5416221712667</v>
+        <v>962.5416221712658</v>
       </c>
       <c r="W22" t="n">
-        <v>768.4807996960595</v>
+        <v>768.4807996960587</v>
       </c>
       <c r="X22" t="n">
-        <v>635.8475963597957</v>
+        <v>635.8475963597949</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.4113647780192</v>
+        <v>510.4113647780184</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1731.032454542913</v>
+        <v>1684.621236373655</v>
       </c>
       <c r="C23" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994998</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.516934119258</v>
+        <v>1148.105715950001</v>
       </c>
       <c r="E23" t="n">
-        <v>904.0850290827671</v>
+        <v>857.6738109135098</v>
       </c>
       <c r="F23" t="n">
-        <v>588.455471854913</v>
+        <v>542.0442536856558</v>
       </c>
       <c r="G23" t="n">
-        <v>268.7393692616627</v>
+        <v>222.328151092406</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.67150069802</v>
       </c>
       <c r="T23" t="n">
-        <v>3200.050100643994</v>
+        <v>3200.050100643996</v>
       </c>
       <c r="U23" t="n">
-        <v>3041.875971479584</v>
+        <v>3041.875971479586</v>
       </c>
       <c r="V23" t="n">
-        <v>2852.580649867027</v>
+        <v>2806.169431697769</v>
       </c>
       <c r="W23" t="n">
-        <v>2595.168342158666</v>
+        <v>2548.757123989408</v>
       </c>
       <c r="X23" t="n">
-        <v>2317.058931459339</v>
+        <v>2270.647713290081</v>
       </c>
       <c r="Y23" t="n">
-        <v>2022.275947045281</v>
+        <v>1975.864728876023</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
@@ -6063,16 +6063,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6084,10 +6084,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6099,7 +6099,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6108,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.119247509533</v>
+        <v>424.1192475095326</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433795</v>
+        <v>350.5394121433792</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927973</v>
+        <v>295.779120292797</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721577</v>
+        <v>243.2223742721575</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360008</v>
+        <v>191.6887743360007</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3422852724733</v>
+        <v>119.3422852724732</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208459</v>
+        <v>68.48144605208454</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>135.051413287934</v>
+        <v>171.7936262148975</v>
       </c>
       <c r="K25" t="n">
-        <v>233.3622675556043</v>
+        <v>363.5632367278425</v>
       </c>
       <c r="L25" t="n">
-        <v>482.5308677232362</v>
+        <v>612.7318368954744</v>
       </c>
       <c r="M25" t="n">
-        <v>743.4221052677085</v>
+        <v>873.6230744399469</v>
       </c>
       <c r="N25" t="n">
-        <v>1008.189698542831</v>
+        <v>1138.390667715069</v>
       </c>
       <c r="O25" t="n">
-        <v>1239.566804006295</v>
+        <v>1276.309016933259</v>
       </c>
       <c r="P25" t="n">
-        <v>1431.976563004328</v>
+        <v>1431.976563004327</v>
       </c>
       <c r="Q25" t="n">
         <v>1538.356086608143</v>
@@ -6175,22 +6175,22 @@
         <v>1442.026549996723</v>
       </c>
       <c r="T25" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128002</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815399</v>
       </c>
       <c r="V25" t="n">
-        <v>962.5416221712667</v>
+        <v>962.541622171266</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960595</v>
+        <v>768.480799696059</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597957</v>
+        <v>635.8475963597953</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780192</v>
+        <v>510.4113647780187</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1731.102921762873</v>
+        <v>1766.0533664538</v>
       </c>
       <c r="C26" t="n">
-        <v>1410.047119436142</v>
+        <v>1444.997564127068</v>
       </c>
       <c r="D26" t="n">
-        <v>1099.688135443071</v>
+        <v>1134.638580133998</v>
       </c>
       <c r="E26" t="n">
-        <v>1046.433927926987</v>
+        <v>796.7570421494338</v>
       </c>
       <c r="F26" t="n">
-        <v>683.3547377510594</v>
+        <v>433.6778519735067</v>
       </c>
       <c r="G26" t="n">
-        <v>316.189002209736</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6242,34 +6242,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3263.221867749947</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3105.150834747849</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>2899.527072635366</v>
       </c>
       <c r="V26" t="n">
-        <v>3042.44964887928</v>
+        <v>2616.370899905475</v>
       </c>
       <c r="W26" t="n">
-        <v>2737.587708222846</v>
+        <v>2311.508959249041</v>
       </c>
       <c r="X26" t="n">
-        <v>2412.028664575447</v>
+        <v>1985.949915601642</v>
       </c>
       <c r="Y26" t="n">
-        <v>2069.796047213315</v>
+        <v>1766.0533664538</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460462</v>
+        <v>756.2666781460457</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318194</v>
+        <v>635.2372098318191</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331639</v>
+        <v>533.0272850331636</v>
       </c>
       <c r="E28" t="n">
-        <v>433.020906064451</v>
+        <v>433.0209060644507</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802208</v>
+        <v>334.0376731802206</v>
       </c>
       <c r="G28" t="n">
-        <v>214.2415511686199</v>
+        <v>214.2415511686198</v>
       </c>
       <c r="H28" t="n">
         <v>115.9310790001579</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>158.5881198719869</v>
+        <v>158.588119871987</v>
       </c>
       <c r="K28" t="n">
-        <v>409.5286738137312</v>
+        <v>398.6314812403291</v>
       </c>
       <c r="L28" t="n">
-        <v>773.0418432550953</v>
+        <v>762.1446506816932</v>
       </c>
       <c r="M28" t="n">
-        <v>1153.255067274112</v>
+        <v>1153.25506727411</v>
       </c>
       <c r="N28" t="n">
-        <v>1541.616814972844</v>
+        <v>1541.616814972843</v>
       </c>
       <c r="O28" t="n">
-        <v>1887.899784886125</v>
+        <v>1887.899784886124</v>
       </c>
       <c r="P28" t="n">
-        <v>2167.460656312653</v>
+        <v>2167.460656312651</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.024323458035</v>
+        <v>2292.024323458034</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.100580829243</v>
+        <v>2250.100580829242</v>
       </c>
       <c r="S28" t="n">
-        <v>2106.32141126975</v>
+        <v>2106.321411269749</v>
       </c>
       <c r="T28" t="n">
-        <v>1932.461510452956</v>
+        <v>1932.461510452955</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.26535819228</v>
+        <v>1691.265358192279</v>
       </c>
       <c r="V28" t="n">
         <v>1484.487584600073</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.977129176793</v>
+        <v>1242.977129176792</v>
       </c>
       <c r="X28" t="n">
         <v>1062.894292892455</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626056</v>
+        <v>890.0084283626052</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1525.47915965039</v>
+        <v>1305.024172789069</v>
       </c>
       <c r="C29" t="n">
-        <v>1204.423357323658</v>
+        <v>983.9683704623374</v>
       </c>
       <c r="D29" t="n">
-        <v>894.0643733305878</v>
+        <v>673.6093864692671</v>
       </c>
       <c r="E29" t="n">
-        <v>556.1828353460237</v>
+        <v>673.6093864692671</v>
       </c>
       <c r="F29" t="n">
-        <v>433.6778519735067</v>
+        <v>310.5301962933398</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6473,40 +6473,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3263.221867749947</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3105.150834747849</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.982059496687</v>
+        <v>2899.527072635366</v>
       </c>
       <c r="V29" t="n">
-        <v>2836.825886766796</v>
+        <v>2616.370899905475</v>
       </c>
       <c r="W29" t="n">
-        <v>2531.963946110362</v>
+        <v>2311.508959249041</v>
       </c>
       <c r="X29" t="n">
-        <v>2206.404902462963</v>
+        <v>1985.949915601642</v>
       </c>
       <c r="Y29" t="n">
-        <v>1864.172285100831</v>
+        <v>1643.71729823951</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
         <v>618.1564155387305</v>
@@ -6528,25 +6528,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6555,19 +6555,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
         <v>2242.828302297192</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460465</v>
+        <v>756.2666781460457</v>
       </c>
       <c r="C31" t="n">
-        <v>635.2372098318198</v>
+        <v>635.2372098318191</v>
       </c>
       <c r="D31" t="n">
-        <v>533.0272850331642</v>
+        <v>533.0272850331636</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644511</v>
+        <v>433.0209060644507</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0376731802209</v>
+        <v>334.0376731802206</v>
       </c>
       <c r="G31" t="n">
-        <v>214.24155116862</v>
+        <v>214.2415511686198</v>
       </c>
       <c r="H31" t="n">
         <v>115.9310790001579</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>158.5881198719869</v>
+        <v>147.6909272985848</v>
       </c>
       <c r="K31" t="n">
-        <v>409.5286738137312</v>
+        <v>398.6314812403291</v>
       </c>
       <c r="L31" t="n">
-        <v>773.0418432550953</v>
+        <v>762.1446506816932</v>
       </c>
       <c r="M31" t="n">
-        <v>1164.152259847512</v>
+        <v>1153.25506727411</v>
       </c>
       <c r="N31" t="n">
-        <v>1552.514007546245</v>
+        <v>1541.616814972843</v>
       </c>
       <c r="O31" t="n">
-        <v>1898.796977459526</v>
+        <v>1887.899784886124</v>
       </c>
       <c r="P31" t="n">
-        <v>2167.460656312653</v>
+        <v>2167.460656312651</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458036</v>
+        <v>2292.024323458034</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829244</v>
+        <v>2250.100580829242</v>
       </c>
       <c r="S31" t="n">
-        <v>2106.321411269751</v>
+        <v>2106.321411269749</v>
       </c>
       <c r="T31" t="n">
-        <v>1932.461510452957</v>
+        <v>1932.461510452955</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.26535819228</v>
+        <v>1691.265358192279</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.487584600074</v>
+        <v>1484.487584600073</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176793</v>
+        <v>1242.977129176792</v>
       </c>
       <c r="X31" t="n">
-        <v>1062.894292892456</v>
+        <v>1062.894292892455</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.0084283626061</v>
+        <v>890.0084283626052</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C32" t="n">
         <v>1440.850850103805</v>
@@ -6683,19 +6683,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E32" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F32" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G32" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912088</v>
@@ -6704,43 +6704,43 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T32" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U32" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V32" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W32" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X32" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y32" t="n">
         <v>1999.070337960652</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C34" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D34" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E34" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F34" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G34" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J34" t="n">
-        <v>175.0427429954467</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K34" t="n">
-        <v>370.0614702889409</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L34" t="n">
-        <v>525.7713142112982</v>
+        <v>527.0902910313824</v>
       </c>
       <c r="M34" t="n">
-        <v>693.203795510496</v>
+        <v>694.5227723305802</v>
       </c>
       <c r="N34" t="n">
-        <v>961.2205055661673</v>
+        <v>962.5394823862516</v>
       </c>
       <c r="O34" t="n">
-        <v>1195.846727810181</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P34" t="n">
-        <v>1391.505603588763</v>
+        <v>1392.824580408848</v>
       </c>
       <c r="Q34" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R34" t="n">
         <v>1489.975538818984</v>
@@ -6892,16 +6892,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V34" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W34" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307323</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7038,28 +7038,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C37" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>253.5298502264956</v>
       </c>
       <c r="L37" t="n">
-        <v>409.2396941488535</v>
+        <v>409.2396941488528</v>
       </c>
       <c r="M37" t="n">
-        <v>673.3800484738751</v>
+        <v>673.3800484738745</v>
       </c>
       <c r="N37" t="n">
-        <v>941.3967585295464</v>
+        <v>941.3967585295459</v>
       </c>
       <c r="O37" t="n">
         <v>1176.02298077356</v>
       </c>
       <c r="P37" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q37" t="n">
         <v>1481.310496936507</v>
@@ -7129,16 +7129,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
@@ -7187,19 +7187,19 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668174</v>
@@ -7211,7 +7211,7 @@
         <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7275,28 +7275,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C40" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962283</v>
+        <v>155.218995958825</v>
       </c>
       <c r="K40" t="n">
-        <v>273.353597263117</v>
+        <v>350.2377232523193</v>
       </c>
       <c r="L40" t="n">
-        <v>514.6126090571543</v>
+        <v>602.6554402005004</v>
       </c>
       <c r="M40" t="n">
-        <v>778.7529633821759</v>
+        <v>770.0879214996982</v>
       </c>
       <c r="N40" t="n">
-        <v>950.0618004120234</v>
+        <v>941.3967585295457</v>
       </c>
       <c r="O40" t="n">
-        <v>1184.688022656037</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
         <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
         <v>1273.865908363023</v>
@@ -7366,16 +7366,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307338</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218372</v>
+        <v>66.51211643218326</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,40 +7421,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7512,28 +7512,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C43" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962283</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L43" t="n">
-        <v>417.9047360313305</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M43" t="n">
-        <v>682.0450903563521</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N43" t="n">
-        <v>950.0618004120234</v>
+        <v>961.2205055661674</v>
       </c>
       <c r="O43" t="n">
-        <v>1184.688022656037</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
         <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
         <v>1273.865908363023</v>
@@ -7603,16 +7603,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7749,28 +7749,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962284</v>
+        <v>79.65384678970703</v>
       </c>
       <c r="K46" t="n">
-        <v>273.3535972631171</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L46" t="n">
-        <v>429.0634411854743</v>
+        <v>527.0902910313824</v>
       </c>
       <c r="M46" t="n">
-        <v>693.2037955104961</v>
+        <v>694.5227723305802</v>
       </c>
       <c r="N46" t="n">
-        <v>961.2205055661675</v>
+        <v>950.0618004120226</v>
       </c>
       <c r="O46" t="n">
-        <v>1195.846727810181</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P46" t="n">
-        <v>1380.346898434618</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304658</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673486</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431748</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
   </sheetData>
@@ -9091,7 +9091,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094459</v>
       </c>
       <c r="N16" t="n">
         <v>171.8177168444618</v>
@@ -10033,13 +10033,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>95.73650111899374</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>167.5023956837884</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>22.62897609706455</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
@@ -10285,7 +10285,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>123.9992980883844</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25815758737082</v>
+        <v>15.25815758737081</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843754</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>154.5936377623554</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796641</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>126.8321228077025</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>45.94710598756638</v>
+        <v>45.94710598756626</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>31.16212828552634</v>
+        <v>45.94710598756467</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.7849777020399</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>45.94710598756409</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>45.94710598756683</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.3061941959371</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>281.7810571637947</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.180116919777</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.76011432063247</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.4903226720768</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>203.5675244913586</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>121.1127075321473</v>
       </c>
     </row>
     <row r="27">
@@ -24686,16 +24686,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.5027226047183</v>
       </c>
       <c r="F29" t="n">
-        <v>238.1684647353762</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>121.9161791233652</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1801169197771</v>
+        <v>247.180116919777</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063251</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.4903226720768</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.651123682222533e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.483702463810914e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>626873.407037182</v>
+        <v>626873.4070371821</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653907.5041821386</v>
+        <v>653907.5041821389</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>778312.5217811865</v>
+      </c>
+      <c r="C2" t="n">
         <v>778312.5217811863</v>
       </c>
-      <c r="C2" t="n">
-        <v>778312.5217811862</v>
-      </c>
       <c r="D2" t="n">
-        <v>778315.8929153243</v>
+        <v>778315.892915324</v>
       </c>
       <c r="E2" t="n">
-        <v>726304.4593953508</v>
+        <v>726304.4593953503</v>
       </c>
       <c r="F2" t="n">
-        <v>726304.4593953512</v>
+        <v>726304.4593953515</v>
       </c>
       <c r="G2" t="n">
-        <v>776515.1612162879</v>
+        <v>776515.1612162874</v>
       </c>
       <c r="H2" t="n">
-        <v>776515.1612162879</v>
+        <v>776515.1612162878</v>
       </c>
       <c r="I2" t="n">
-        <v>776515.1612162879</v>
+        <v>776515.1612162882</v>
       </c>
       <c r="J2" t="n">
-        <v>726783.5235809183</v>
+        <v>726783.5235809179</v>
       </c>
       <c r="K2" t="n">
-        <v>726783.5235809182</v>
+        <v>726783.5235809181</v>
       </c>
       <c r="L2" t="n">
+        <v>779989.6813710685</v>
+      </c>
+      <c r="M2" t="n">
         <v>779989.6813710686</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710687</v>
       </c>
       <c r="N2" t="n">
         <v>779989.6813710687</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710685</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="P2" t="n">
-        <v>779989.6813710683</v>
+        <v>779989.6813710686</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971249218</v>
+        <v>9496.994971251088</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265977</v>
+        <v>1152439.021265975</v>
       </c>
       <c r="F3" t="n">
-        <v>1.456203335692407e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403473</v>
+        <v>37942.11797403478</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78147.77618248401</v>
+        <v>78147.776182484</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.5682920727</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.8212586375</v>
+        <v>463750.8212586368</v>
       </c>
       <c r="E4" t="n">
-        <v>63095.10913369706</v>
+        <v>63095.10913369703</v>
       </c>
       <c r="F4" t="n">
-        <v>63095.10913369698</v>
+        <v>63095.10913369703</v>
       </c>
       <c r="G4" t="n">
-        <v>91701.70120662291</v>
+        <v>91701.70120662295</v>
       </c>
       <c r="H4" t="n">
-        <v>91701.70120662289</v>
+        <v>91701.70120662295</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.70120662291</v>
+        <v>91701.70120662294</v>
       </c>
       <c r="J4" t="n">
-        <v>63366.32784492842</v>
+        <v>63366.32784492853</v>
       </c>
       <c r="K4" t="n">
-        <v>63366.32784492837</v>
+        <v>63366.32784492851</v>
       </c>
       <c r="L4" t="n">
+        <v>93774.13782657709</v>
+      </c>
+      <c r="M4" t="n">
         <v>93774.13782657703</v>
       </c>
-      <c r="M4" t="n">
-        <v>93774.13782657702</v>
-      </c>
       <c r="N4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657708</v>
+        <v>93774.13782657706</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.3458032835</v>
+        <v>33869.34580328354</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="G5" t="n">
         <v>82242.68821673066</v>
@@ -26488,19 +26488,19 @@
         <v>82242.68821673066</v>
       </c>
       <c r="I5" t="n">
-        <v>82242.68821673066</v>
+        <v>82242.68821673068</v>
       </c>
       <c r="J5" t="n">
-        <v>78293.5354563422</v>
+        <v>78293.53545634222</v>
       </c>
       <c r="K5" t="n">
-        <v>78293.5354563422</v>
+        <v>78293.53545634222</v>
       </c>
       <c r="L5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624982</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277068.9618494551</v>
+        <v>277064.5482715871</v>
       </c>
       <c r="C6" t="n">
-        <v>277068.961849455</v>
+        <v>277064.548271587</v>
       </c>
       <c r="D6" t="n">
-        <v>271198.730882154</v>
+        <v>271194.32617569</v>
       </c>
       <c r="E6" t="n">
-        <v>-567485.164326105</v>
+        <v>-567626.4412260398</v>
       </c>
       <c r="F6" t="n">
-        <v>584953.8569398724</v>
+        <v>584812.5800399366</v>
       </c>
       <c r="G6" t="n">
-        <v>564628.6538188995</v>
+        <v>564619.5103448075</v>
       </c>
       <c r="H6" t="n">
-        <v>602570.7717929343</v>
+        <v>602561.6283188425</v>
       </c>
       <c r="I6" t="n">
-        <v>602570.7717929343</v>
+        <v>602561.628318843</v>
       </c>
       <c r="J6" t="n">
-        <v>585123.6602796478</v>
+        <v>584983.6440749363</v>
       </c>
       <c r="K6" t="n">
-        <v>585123.6602796478</v>
+        <v>584983.6440749365</v>
       </c>
       <c r="L6" t="n">
-        <v>525549.1700557577</v>
+        <v>525549.1700557575</v>
       </c>
       <c r="M6" t="n">
-        <v>396508.377946169</v>
+        <v>396508.3779461689</v>
       </c>
       <c r="N6" t="n">
         <v>603696.9462382419</v>
@@ -26561,7 +26561,7 @@
         <v>603696.9462382416</v>
       </c>
       <c r="P6" t="n">
-        <v>603696.9462382414</v>
+        <v>603696.9462382416</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="K2" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135308</v>
+        <v>11.08925703135526</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26808,28 +26808,28 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.42764746754341</v>
+        <v>47.42764746754347</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135308</v>
+        <v>11.08925703135526</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561945</v>
+        <v>1078.687443561943</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022918</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42764746754341</v>
+        <v>47.42764746754347</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.0182479305517</v>
+        <v>339.0182479305516</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052753</v>
+        <v>208.757221905275</v>
       </c>
       <c r="J8" t="n">
-        <v>177.2622388826067</v>
+        <v>177.2622388826059</v>
       </c>
       <c r="K8" t="n">
-        <v>214.4191170586409</v>
+        <v>214.4191170586398</v>
       </c>
       <c r="L8" t="n">
-        <v>228.731368019333</v>
+        <v>228.7313680193316</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862413</v>
+        <v>222.5183879862397</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4585556357993</v>
+        <v>221.4585556357978</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951176007</v>
+        <v>222.5869951175993</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178631</v>
+        <v>224.8223464178618</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592000996</v>
+        <v>217.4915592000987</v>
       </c>
       <c r="R8" t="n">
-        <v>212.7851939267121</v>
+        <v>212.7851939267115</v>
       </c>
       <c r="S8" t="n">
-        <v>208.0042044823179</v>
+        <v>208.0042044823177</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27947,37 +27947,37 @@
         <v>137.31966479903</v>
       </c>
       <c r="H9" t="n">
-        <v>112.005080614015</v>
+        <v>112.0050806140149</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588564</v>
+        <v>98.70114728588548</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297575</v>
+        <v>124.584101329757</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9898052373465</v>
+        <v>133.9898052373457</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993352</v>
+        <v>133.3753828993342</v>
       </c>
       <c r="M9" t="n">
-        <v>136.0903888399309</v>
+        <v>136.0903888399297</v>
       </c>
       <c r="N9" t="n">
-        <v>125.1381096993502</v>
+        <v>125.138109699349</v>
       </c>
       <c r="O9" t="n">
-        <v>136.9211602352009</v>
+        <v>136.9211602351998</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4196520121505</v>
+        <v>129.4196520121496</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214885</v>
+        <v>136.9370407214879</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721165</v>
+        <v>144.1985650721162</v>
       </c>
       <c r="S9" t="n">
         <v>171.2401239007455</v>
@@ -28026,40 +28026,40 @@
         <v>167.9709823375825</v>
       </c>
       <c r="H10" t="n">
-        <v>162.0493808127402</v>
+        <v>162.0493808127401</v>
       </c>
       <c r="I10" t="n">
-        <v>154.849109972181</v>
+        <v>154.8491099721809</v>
       </c>
       <c r="J10" t="n">
-        <v>125.581632063448</v>
+        <v>125.5816320634478</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269175</v>
+        <v>126.689967926917</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502424</v>
+        <v>131.9116646502418</v>
       </c>
       <c r="M10" t="n">
-        <v>135.7911600297096</v>
+        <v>135.791160029709</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978764</v>
+        <v>124.6254548978758</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465399</v>
+        <v>135.6300504465393</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697194</v>
+        <v>135.3094552697189</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177115</v>
+        <v>149.8305238177112</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3942526021355</v>
+        <v>176.3942526021353</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6681045004296</v>
+        <v>223.6681045004295</v>
       </c>
       <c r="T10" t="n">
         <v>227.8601476118104</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="C17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="D17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="E17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="F17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="G17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="H17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="T17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="U17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="V17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="W17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="X17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
     </row>
     <row r="18">
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="C19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="D19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="E19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="F19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="G19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="H19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="I19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="J19" t="n">
-        <v>57.28943769526384</v>
+        <v>51.81880627917381</v>
       </c>
       <c r="K19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="L19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="O19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="P19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="S19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="T19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="U19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="V19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="W19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="X19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="D20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="E20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="F20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="G20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="H20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="T20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="U20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="V20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="W20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="X20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="D22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="F22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="G22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="H22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="I22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="J22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="K22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="L22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="M22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="N22" t="n">
-        <v>57.28943769526398</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="O22" t="n">
-        <v>94.40278408613595</v>
+        <v>51.81880627917337</v>
       </c>
       <c r="P22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="S22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="T22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="U22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="V22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="W22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="X22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613604</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
     </row>
     <row r="24">
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="J25" t="n">
-        <v>57.28943769526381</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="M25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="N25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="O25" t="n">
-        <v>94.40278408613595</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>94.40278408613595</v>
+        <v>57.28943769526271</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613595</v>
+        <v>94.40278408613601</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
     </row>
     <row r="27">
@@ -29369,10 +29369,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="I27" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42764746754337</v>
+        <v>47.42764746754344</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="D29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="E29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="F29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="G29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="H29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29545,7 +29545,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="T29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="U29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="V29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="W29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="X29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="C31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="D31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="F31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="G31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="I31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="J31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="K31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="L31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="M31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="N31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="O31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="P31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="S31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="T31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="U31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="V31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="W31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754344</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29776,10 +29776,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.161737372967764e-12</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K34" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.41330088048502</v>
+        <v>76.32843350415975</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30168,49 +30168,49 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>77.66073332242669</v>
       </c>
       <c r="L37" t="n">
-        <v>77.66073332242743</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>77.66073332242644</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L40" t="n">
-        <v>86.41330088048488</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L43" t="n">
-        <v>86.413300880485</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810494</v>
+        <v>77.66073332242664</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810504</v>
+        <v>85.08100106221713</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P46" t="n">
-        <v>86.41330088048352</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R46" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776423346</v>
+        <v>0.04457992776424224</v>
       </c>
       <c r="H8" t="n">
-        <v>0.456554185215456</v>
+        <v>0.4565541852155459</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130612</v>
+        <v>1.71866766513095</v>
       </c>
       <c r="J8" t="n">
-        <v>3.783665644079613</v>
+        <v>3.783665644080358</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986339616</v>
+        <v>5.670733986340733</v>
       </c>
       <c r="L8" t="n">
-        <v>7.035046950654278</v>
+        <v>7.035046950655663</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241031464</v>
+        <v>7.827845241033005</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960791593</v>
+        <v>7.954507960793159</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304085996</v>
+        <v>7.511216304087475</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337406482</v>
+        <v>6.410649337407744</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.81413067434987</v>
+        <v>4.814130674350817</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887420033</v>
+        <v>2.800343887420584</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927471</v>
+        <v>1.015865103927671</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879321</v>
+        <v>0.1951486337879705</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003566394221138676</v>
+        <v>0.003566394221139378</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02385236418064625</v>
+        <v>0.02385236418065095</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2303636224815046</v>
+        <v>0.23036362248155</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141143557</v>
+        <v>0.8212327141145174</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336909215</v>
+        <v>2.253525336909659</v>
       </c>
       <c r="K9" t="n">
-        <v>3.851633737012514</v>
+        <v>3.851633737013272</v>
       </c>
       <c r="L9" t="n">
-        <v>5.178996880539003</v>
+        <v>5.178996880540023</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082087429</v>
+        <v>6.043645082088618</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383983079</v>
+        <v>6.203602383984301</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209243496</v>
+        <v>5.675084209244614</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402179722</v>
+        <v>4.554755402180619</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.04473336453302</v>
+        <v>3.04473336453362</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847493</v>
+        <v>1.480938891847785</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4430472030922667</v>
+        <v>0.443047203092354</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09614176614918377</v>
+        <v>0.09614176614920268</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485568833</v>
+        <v>0.001569234485569142</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01999702087621047</v>
+        <v>0.01999702087621441</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946993987</v>
+        <v>0.1777916946994337</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6013649550773115</v>
+        <v>0.6013649550774299</v>
       </c>
       <c r="J10" t="n">
-        <v>1.41378937594808</v>
+        <v>1.413789375948359</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243617907</v>
+        <v>2.323290243618365</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630995874</v>
+        <v>2.973011630996459</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917895428</v>
+        <v>3.134623917896046</v>
       </c>
       <c r="N10" t="n">
-        <v>3.060089567356828</v>
+        <v>3.060089567357431</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005302914</v>
+        <v>2.82648800530347</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779428218</v>
+        <v>2.418548779428694</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734315</v>
+        <v>1.674477811734645</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8991387750339725</v>
+        <v>0.8991387750341495</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3484935365426861</v>
+        <v>0.3484935365427547</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647108109</v>
+        <v>0.08544181647109791</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001090746593247845</v>
+        <v>0.00109074659324806</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,37 +31829,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31868,7 +31868,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31917,16 +31917,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883114</v>
@@ -31935,19 +31935,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
         <v>281.9322077637029</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120766</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,7 +35820,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>69.2316129856067</v>
+        <v>63.76098156951667</v>
       </c>
       <c r="K19" t="n">
-        <v>193.7066772858029</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L19" t="n">
-        <v>251.6854547147796</v>
+        <v>251.6854547147797</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>267.4420134092142</v>
+        <v>267.4420134092143</v>
       </c>
       <c r="O19" t="n">
-        <v>233.7142479428932</v>
+        <v>233.7142479428933</v>
       </c>
       <c r="P19" t="n">
-        <v>194.3532919172052</v>
+        <v>194.3532919172053</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.4540642462781</v>
+        <v>107.4540642462782</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.470631416088693</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.3449593764788</v>
+        <v>106.3449593764789</v>
       </c>
       <c r="K22" t="n">
-        <v>193.7066772858029</v>
+        <v>193.7066772858031</v>
       </c>
       <c r="L22" t="n">
-        <v>251.6854547147796</v>
+        <v>251.6854547147797</v>
       </c>
       <c r="M22" t="n">
-        <v>263.5265025701741</v>
+        <v>263.5265025701742</v>
       </c>
       <c r="N22" t="n">
-        <v>230.3286670183422</v>
+        <v>267.4420134092143</v>
       </c>
       <c r="O22" t="n">
-        <v>233.7142479428932</v>
+        <v>191.1302701359307</v>
       </c>
       <c r="P22" t="n">
-        <v>194.3532919172052</v>
+        <v>194.3532919172054</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.470631416088708</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.23161298560667</v>
+        <v>106.3449593764789</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966699</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L25" t="n">
-        <v>251.6854547147796</v>
+        <v>251.6854547147797</v>
       </c>
       <c r="M25" t="n">
-        <v>263.5265025701741</v>
+        <v>263.5265025701742</v>
       </c>
       <c r="N25" t="n">
-        <v>267.4420134092142</v>
+        <v>267.4420134092143</v>
       </c>
       <c r="O25" t="n">
-        <v>233.7142479428932</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>194.3532919172052</v>
+        <v>157.239945526332</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.4540642462781</v>
+        <v>107.4540642462782</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037208</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.00606408060958</v>
+        <v>93.00606408060963</v>
       </c>
       <c r="K28" t="n">
-        <v>253.4753070118629</v>
+        <v>242.4680417862042</v>
       </c>
       <c r="L28" t="n">
-        <v>367.1850196377414</v>
+        <v>367.1850196377415</v>
       </c>
       <c r="M28" t="n">
-        <v>384.0537616353699</v>
+        <v>395.0610268610272</v>
       </c>
       <c r="N28" t="n">
-        <v>392.2845936350834</v>
+        <v>392.2845936350835</v>
       </c>
       <c r="O28" t="n">
-        <v>349.7807776901831</v>
+        <v>349.7807776901832</v>
       </c>
       <c r="P28" t="n">
-        <v>282.3847186126537</v>
+        <v>282.3847186126538</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.821886005437</v>
+        <v>125.8218860054371</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129129</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00606408060956</v>
+        <v>81.99879885495085</v>
       </c>
       <c r="K31" t="n">
-        <v>253.4753070118629</v>
+        <v>253.475307011863</v>
       </c>
       <c r="L31" t="n">
-        <v>367.1850196377414</v>
+        <v>367.1850196377415</v>
       </c>
       <c r="M31" t="n">
         <v>395.0610268610272</v>
       </c>
       <c r="N31" t="n">
-        <v>392.2845936350834</v>
+        <v>392.2845936350835</v>
       </c>
       <c r="O31" t="n">
-        <v>349.7807776901831</v>
+        <v>349.7807776901832</v>
       </c>
       <c r="P31" t="n">
-        <v>271.377453386997</v>
+        <v>282.3847186126538</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.821886005437</v>
+        <v>125.8218860054371</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302282</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37221,16 +37221,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J34" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K34" t="n">
-        <v>196.9886134277719</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M34" t="n">
         <v>169.1237184840381</v>
@@ -37245,10 +37245,10 @@
         <v>197.6352280591742</v>
       </c>
       <c r="Q34" t="n">
-        <v>99.46458104062719</v>
+        <v>89.37971366430192</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966699</v>
+        <v>176.9646265220937</v>
       </c>
       <c r="L37" t="n">
-        <v>234.9434039510711</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M37" t="n">
         <v>266.8084387121431</v>
@@ -37485,7 +37485,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057592</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
@@ -37698,31 +37698,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034286</v>
+        <v>89.6029086127693</v>
       </c>
       <c r="K40" t="n">
-        <v>196.9886134277719</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>243.6959715091285</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
         <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057649</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37935,31 +37935,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>243.6959715091286</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591742</v>
+        <v>177.6112411534959</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057649</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266883</v>
       </c>
       <c r="J46" t="n">
         <v>11.94217529034286</v>
@@ -38178,19 +38178,19 @@
         <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>258.1202303852954</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>186.3638087115528</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
         <v>110.7360003882472</v>
